--- a/data/reference/LIST_OF_CUSTOMER.xlsx
+++ b/data/reference/LIST_OF_CUSTOMER.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ernawati.ede\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anilpal/Documents/Inabata_Production/data/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A70D5466-72BC-480F-AD42-310C86D83B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73AEB7BD-0856-084D-8A8A-3EDEB99A8E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{89845A5A-895F-435C-819D-8E7BFADE8B8F}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="16800" windowHeight="20400" xr2:uid="{89845A5A-895F-435C-819D-8E7BFADE8B8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="187">
   <si>
     <t>SERI</t>
   </si>
@@ -89,9 +89,6 @@
     <t>188/KM.4/WBC.10/2024</t>
   </si>
   <si>
-    <t>12-12-2024 00:00:00</t>
-  </si>
-  <si>
     <t>0022463707217000000000</t>
   </si>
   <si>
@@ -104,9 +101,6 @@
     <t>727/MK/WBC.08/2025</t>
   </si>
   <si>
-    <t>10-29-2025 00:00:00</t>
-  </si>
-  <si>
     <t>0314041633413000000000</t>
   </si>
   <si>
@@ -119,9 +113,6 @@
     <t>672/KM.4/WBC.08/2023</t>
   </si>
   <si>
-    <t>12-27-2023 00:00:00</t>
-  </si>
-  <si>
     <t>0010713113055000000000</t>
   </si>
   <si>
@@ -134,9 +125,6 @@
     <t>819/KM.4/WBC.08/2024</t>
   </si>
   <si>
-    <t>12-04-2024 00:00:00</t>
-  </si>
-  <si>
     <t>0010847341057000000000</t>
   </si>
   <si>
@@ -147,9 +135,6 @@
   </si>
   <si>
     <t>222/KM.4/WBC.08/2023</t>
-  </si>
-  <si>
-    <t>05-11-2023 00:00:00</t>
   </si>
   <si>
     <t>0013050083055000000001</t>
@@ -165,9 +150,6 @@
     <t>235/WBC.09/2023</t>
   </si>
   <si>
-    <t>06-08-2023 00:00:00</t>
-  </si>
-  <si>
     <t>0018692350055000000000</t>
   </si>
   <si>
@@ -180,9 +162,6 @@
     <t>54/KM.4/WBC.08/2025</t>
   </si>
   <si>
-    <t>01-21-2025 00:00:00</t>
-  </si>
-  <si>
     <t>0010714269052000000000</t>
   </si>
   <si>
@@ -201,9 +180,6 @@
     <t>KEP-820/WBC.09/2022</t>
   </si>
   <si>
-    <t>12-06-2022 00:00:00</t>
-  </si>
-  <si>
     <t>0210802716431000000000</t>
   </si>
   <si>
@@ -216,9 +192,6 @@
     <t>KEP-737/WBC.09/2022</t>
   </si>
   <si>
-    <t>11-01-2022 00:00:00</t>
-  </si>
-  <si>
     <t>0010847309092000000000</t>
   </si>
   <si>
@@ -231,9 +204,6 @@
     <t>477/MK/WBC.08/2025</t>
   </si>
   <si>
-    <t>07-16-2025 00:00:00</t>
-  </si>
-  <si>
     <t>0018243071052000000000</t>
   </si>
   <si>
@@ -246,9 +216,6 @@
     <t>630/WBC.09/2022</t>
   </si>
   <si>
-    <t>09-08-2022 00:00:00</t>
-  </si>
-  <si>
     <t>0010846483055000000000</t>
   </si>
   <si>
@@ -261,9 +228,6 @@
     <t>110/KM.4/WBC.08/2025</t>
   </si>
   <si>
-    <t>02-14-2025 00:00:00</t>
-  </si>
-  <si>
     <t>0018695122055000000000</t>
   </si>
   <si>
@@ -276,9 +240,6 @@
     <t>382/KM.4/WBC.08/2023</t>
   </si>
   <si>
-    <t>08-02-2023 00:00:00</t>
-  </si>
-  <si>
     <t>0010710689092000000000</t>
   </si>
   <si>
@@ -291,9 +252,6 @@
     <t>232/KM.4/WBC.08/2024</t>
   </si>
   <si>
-    <t>04-22-2024 00:00:00</t>
-  </si>
-  <si>
     <t>0018243733052000000000</t>
   </si>
   <si>
@@ -316,9 +274,6 @@
   </si>
   <si>
     <t>323/KM.4/WBC.08/2023</t>
-  </si>
-  <si>
-    <t>07-12-2023 00:00:00</t>
   </si>
   <si>
     <t>0010815942431000000000</t>
@@ -334,9 +289,6 @@
     <t>527/KM.4/WBC.08/2023</t>
   </si>
   <si>
-    <t>10-13-2023 00:00:00</t>
-  </si>
-  <si>
     <t>0010815835431000000000</t>
   </si>
   <si>
@@ -349,9 +301,6 @@
     <t>627/MK/WBC.08/2025</t>
   </si>
   <si>
-    <t>09-16-2025 00:00:00</t>
-  </si>
-  <si>
     <t>0010719920055000000000</t>
   </si>
   <si>
@@ -364,9 +313,6 @@
     <t>KEP-511/KM.4/WBC.08/2023</t>
   </si>
   <si>
-    <t>10-06-2023 00:00:00</t>
-  </si>
-  <si>
     <t>0314512757413000000000</t>
   </si>
   <si>
@@ -379,9 +325,6 @@
     <t>12/KM.4/WBC.08/2024</t>
   </si>
   <si>
-    <t>01-08-2024 00:00:00</t>
-  </si>
-  <si>
     <t>0010708188055000000000</t>
   </si>
   <si>
@@ -394,9 +337,6 @@
     <t>368/MK/WBC.08/2025</t>
   </si>
   <si>
-    <t>06-03-2025 00:00:00</t>
-  </si>
-  <si>
     <t>0010815769055000000000</t>
   </si>
   <si>
@@ -409,9 +349,6 @@
     <t>512/KM.4/WBC.08/2024</t>
   </si>
   <si>
-    <t>08-06-2024 00:00:00</t>
-  </si>
-  <si>
     <t>0020267449441000000000</t>
   </si>
   <si>
@@ -424,9 +361,6 @@
     <t>142/WBC.09/KPP.MP.03/2018</t>
   </si>
   <si>
-    <t>09-18-2018 00:00:00</t>
-  </si>
-  <si>
     <t>0018692400055000000000</t>
   </si>
   <si>
@@ -439,9 +373,6 @@
     <t>1491/WBC.11/2022</t>
   </si>
   <si>
-    <t>08-23-2022 00:00:00</t>
-  </si>
-  <si>
     <t>0024221087414000000000</t>
   </si>
   <si>
@@ -454,9 +385,6 @@
     <t>496/KM.4/2014</t>
   </si>
   <si>
-    <t>03-24-2014 00:00:00</t>
-  </si>
-  <si>
     <t>0018246785052000000000</t>
   </si>
   <si>
@@ -469,9 +397,6 @@
     <t>547/MK/WBC.08/2025</t>
   </si>
   <si>
-    <t>08-07-2025 00:00:00</t>
-  </si>
-  <si>
     <t>0018827709052000000000</t>
   </si>
   <si>
@@ -484,9 +409,6 @@
     <t>KEP-518/WBC.09/2022</t>
   </si>
   <si>
-    <t>07-28-2022 00:00:00</t>
-  </si>
-  <si>
     <t>0010816130413000000000</t>
   </si>
   <si>
@@ -499,9 +421,6 @@
     <t>KEP-400/WBC.09/2018</t>
   </si>
   <si>
-    <t>04-25-2018 00:00:00</t>
-  </si>
-  <si>
     <t>0010816007431000000000</t>
   </si>
   <si>
@@ -514,9 +433,6 @@
     <t>465/KM.4/2012</t>
   </si>
   <si>
-    <t>03-05-2012 00:00:00</t>
-  </si>
-  <si>
     <t>0010711505052000000000</t>
   </si>
   <si>
@@ -529,9 +445,6 @@
     <t>489/KM.4/WBC.08/2023</t>
   </si>
   <si>
-    <t>09-22-2023 00:00:00</t>
-  </si>
-  <si>
     <t>0010719342055000000000</t>
   </si>
   <si>
@@ -544,9 +457,6 @@
     <t>KEP-407/WBC.09/2021</t>
   </si>
   <si>
-    <t>05-31-2021 00:00:00</t>
-  </si>
-  <si>
     <t>0018693697055000000000</t>
   </si>
   <si>
@@ -559,9 +469,6 @@
     <t>88/WBC.08/2017</t>
   </si>
   <si>
-    <t>05-26-2017 00:00:00</t>
-  </si>
-  <si>
     <t>0025009382413000000000</t>
   </si>
   <si>
@@ -574,9 +481,6 @@
     <t>KEP-407/WBC.09/2018</t>
   </si>
   <si>
-    <t>04-30-2018 00:00:00</t>
-  </si>
-  <si>
     <t>0024227035413000000000</t>
   </si>
   <si>
@@ -589,9 +493,6 @@
     <t>KEP-196/WBC.09/2022</t>
   </si>
   <si>
-    <t>03-22-2022 00:00:00</t>
-  </si>
-  <si>
     <t>0660322207413000000000</t>
   </si>
   <si>
@@ -604,9 +505,6 @@
     <t>71/KM.4/WBC.08/2025</t>
   </si>
   <si>
-    <t>02-03-2025 00:00:00</t>
-  </si>
-  <si>
     <t>0312775794408000000000</t>
   </si>
   <si>
@@ -619,9 +517,6 @@
     <t>KEP-611/WBC.09/2021</t>
   </si>
   <si>
-    <t>08-19-2021 00:00:00</t>
-  </si>
-  <si>
     <t>0312688559413000000000</t>
   </si>
   <si>
@@ -634,9 +529,6 @@
     <t>KEP-689/WBC.09/2021</t>
   </si>
   <si>
-    <t>09-21-2021 00:00:00</t>
-  </si>
-  <si>
     <t>0010617751052000000000</t>
   </si>
   <si>
@@ -649,9 +541,6 @@
     <t>KEP-596/WBC.09/2022</t>
   </si>
   <si>
-    <t>08-30-2022 00:00:00</t>
-  </si>
-  <si>
     <t>0010716959055000000000</t>
   </si>
   <si>
@@ -664,9 +553,6 @@
     <t>336/MK/WBC.08/2025</t>
   </si>
   <si>
-    <t>05-20-2025 00:00:00</t>
-  </si>
-  <si>
     <t>0018694935055000000000</t>
   </si>
   <si>
@@ -679,9 +565,6 @@
     <t>851/KM.4/WBC.08/2024</t>
   </si>
   <si>
-    <t>12-16-2024 00:00:00</t>
-  </si>
-  <si>
     <t>0018242842052000000000</t>
   </si>
   <si>
@@ -694,9 +577,6 @@
     <t>213/KM.4/WBC.08/2023</t>
   </si>
   <si>
-    <t>05-09-2023 00:00:00</t>
-  </si>
-  <si>
     <t>0013633821415000000000</t>
   </si>
   <si>
@@ -709,16 +589,10 @@
     <t>KEP-23/WBC.09/2023</t>
   </si>
   <si>
-    <t>01-13-2023 00:00:00</t>
-  </si>
-  <si>
     <t>KAWASAN INDUSTRI MM2100, JALAN FLORES BLOK B3, DESA MEKARWANGI, KECAMATAN CIKARANG BARAT BEKASI, JAWA BARAT PLAN 2</t>
   </si>
   <si>
     <t>KEP-823/WBC.09/2022</t>
-  </si>
-  <si>
-    <t>12-07-2022 00:00:00</t>
   </si>
   <si>
     <t>KAWASAN INDUSTRI MM2100, JL. SELAYAR BLOK H-1, DESA
@@ -732,8 +606,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -748,6 +623,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -770,9 +646,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1128,27 +1006,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C669E73C-5619-4902-A56D-C3AEBC877C79}">
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="140.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="140.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1183,7 +1062,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1205,1230 +1084,1277 @@
       <c r="J2" t="s">
         <v>16</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="2">
+        <v>45638</v>
+      </c>
+      <c r="L2" s="3"/>
+      <c r="O2" s="2">
+        <v>45717</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" t="s">
+      <c r="J3" t="s">
         <v>20</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" s="2">
+        <v>45959</v>
+      </c>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="K3" t="s">
+      <c r="E4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" t="s">
+      <c r="J4" t="s">
         <v>24</v>
       </c>
-      <c r="F4" t="s">
+      <c r="K4" s="2">
+        <v>45287</v>
+      </c>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="J4" t="s">
+      <c r="E5" t="s">
         <v>26</v>
       </c>
-      <c r="K4" t="s">
+      <c r="F5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="J5" t="s">
         <v>28</v>
       </c>
-      <c r="E5" t="s">
+      <c r="K5" s="2">
+        <v>45630</v>
+      </c>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
         <v>29</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E6" t="s">
         <v>30</v>
       </c>
-      <c r="J5" t="s">
+      <c r="F6" t="s">
         <v>31</v>
       </c>
-      <c r="K5" t="s">
+      <c r="J6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="K6" s="2">
+        <v>45057</v>
+      </c>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
         <v>33</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
         <v>34</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F7" t="s">
         <v>35</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J7" t="s">
         <v>36</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K7" s="2">
+        <v>45085</v>
+      </c>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E8" t="s">
         <v>38</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F8" t="s">
         <v>39</v>
       </c>
-      <c r="F7" t="s">
+      <c r="J8" t="s">
         <v>40</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K8" s="2">
+        <v>45678</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
         <v>41</v>
       </c>
-      <c r="K7" t="s">
+      <c r="E9" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="F9" t="s">
         <v>43</v>
       </c>
-      <c r="E8" t="s">
+      <c r="H9" t="s">
         <v>44</v>
       </c>
-      <c r="F8" t="s">
+      <c r="I9" t="s">
         <v>45</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J9" t="s">
         <v>46</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K9" s="2">
+        <v>44901</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E10" t="s">
         <v>48</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F10" t="s">
         <v>49</v>
       </c>
-      <c r="F9" t="s">
+      <c r="J10" t="s">
         <v>50</v>
       </c>
-      <c r="H9" t="s">
+      <c r="K10" s="2">
+        <v>44866</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
         <v>51</v>
       </c>
-      <c r="I9" t="s">
+      <c r="E11" t="s">
         <v>52</v>
       </c>
-      <c r="J9" t="s">
+      <c r="F11" t="s">
         <v>53</v>
       </c>
-      <c r="K9" t="s">
+      <c r="H11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="K11" s="2">
+        <v>45854</v>
+      </c>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
         <v>55</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E12" t="s">
         <v>56</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F12" t="s">
         <v>57</v>
       </c>
-      <c r="J10" t="s">
+      <c r="H12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" t="s">
         <v>58</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K12" s="2">
+        <v>44812</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E13" t="s">
         <v>60</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F13" t="s">
         <v>61</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H13" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" t="s">
         <v>62</v>
       </c>
-      <c r="H11" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" t="s">
-        <v>52</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="K13" s="2">
+        <v>45702</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
         <v>63</v>
       </c>
-      <c r="K11" t="s">
+      <c r="E14" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="F14" t="s">
         <v>65</v>
       </c>
-      <c r="E12" t="s">
+      <c r="H14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" t="s">
         <v>66</v>
       </c>
-      <c r="F12" t="s">
+      <c r="K14" s="2">
+        <v>45140</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
         <v>67</v>
       </c>
-      <c r="H12" t="s">
-        <v>51</v>
-      </c>
-      <c r="I12" t="s">
-        <v>52</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="E15" t="s">
         <v>68</v>
       </c>
-      <c r="K12" t="s">
+      <c r="F15" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="J15" t="s">
         <v>70</v>
       </c>
-      <c r="E13" t="s">
+      <c r="K15" s="2">
+        <v>45404</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
         <v>71</v>
       </c>
-      <c r="F13" t="s">
+      <c r="E16" t="s">
         <v>72</v>
       </c>
-      <c r="H13" t="s">
-        <v>51</v>
-      </c>
-      <c r="I13" t="s">
-        <v>52</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="F16" t="s">
         <v>73</v>
       </c>
-      <c r="K13" t="s">
+      <c r="H16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="K16" s="2">
+        <v>45678</v>
+      </c>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
         <v>75</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E17" t="s">
         <v>76</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F17" t="s">
         <v>77</v>
       </c>
-      <c r="H14" t="s">
-        <v>51</v>
-      </c>
-      <c r="I14" t="s">
-        <v>52</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="H17" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J17" t="s">
         <v>78</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K17" s="2">
+        <v>45119</v>
+      </c>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="E18" t="s">
         <v>80</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F18" t="s">
         <v>81</v>
       </c>
-      <c r="F15" t="s">
+      <c r="J18" t="s">
         <v>82</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K18" s="2">
+        <v>45212</v>
+      </c>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
         <v>83</v>
       </c>
-      <c r="K15" t="s">
+      <c r="E19" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="F19" t="s">
         <v>85</v>
       </c>
-      <c r="E16" t="s">
+      <c r="J19" t="s">
         <v>86</v>
       </c>
-      <c r="F16" t="s">
+      <c r="K19" s="2">
+        <v>45916</v>
+      </c>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
         <v>87</v>
       </c>
-      <c r="H16" t="s">
-        <v>51</v>
-      </c>
-      <c r="I16" t="s">
-        <v>52</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="E20" t="s">
         <v>88</v>
       </c>
-      <c r="K16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="F20" t="s">
         <v>89</v>
       </c>
-      <c r="E17" t="s">
+      <c r="H20" t="s">
+        <v>44</v>
+      </c>
+      <c r="I20" t="s">
+        <v>45</v>
+      </c>
+      <c r="J20" t="s">
         <v>90</v>
       </c>
-      <c r="F17" t="s">
+      <c r="K20" s="2">
+        <v>45205</v>
+      </c>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
         <v>91</v>
       </c>
-      <c r="H17" t="s">
-        <v>51</v>
-      </c>
-      <c r="I17" t="s">
-        <v>52</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="E21" t="s">
         <v>92</v>
       </c>
-      <c r="K17" t="s">
+      <c r="F21" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="H21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I21" t="s">
+        <v>45</v>
+      </c>
+      <c r="J21" t="s">
         <v>94</v>
       </c>
-      <c r="E18" t="s">
+      <c r="K21" s="2">
+        <v>45299</v>
+      </c>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
         <v>95</v>
       </c>
-      <c r="F18" t="s">
+      <c r="E22" t="s">
         <v>96</v>
       </c>
-      <c r="J18" t="s">
+      <c r="F22" t="s">
         <v>97</v>
       </c>
-      <c r="K18" t="s">
+      <c r="H22" t="s">
+        <v>44</v>
+      </c>
+      <c r="I22" t="s">
+        <v>45</v>
+      </c>
+      <c r="J22" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="K22" s="2">
+        <v>45811</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
         <v>99</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E23" t="s">
         <v>100</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F23" t="s">
         <v>101</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J23" t="s">
         <v>102</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K23" s="2">
+        <v>45510</v>
+      </c>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="E24" t="s">
         <v>104</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F24" t="s">
         <v>105</v>
       </c>
-      <c r="F20" t="s">
+      <c r="H24" t="s">
+        <v>44</v>
+      </c>
+      <c r="I24" t="s">
+        <v>45</v>
+      </c>
+      <c r="J24" t="s">
         <v>106</v>
       </c>
-      <c r="H20" t="s">
-        <v>51</v>
-      </c>
-      <c r="I20" t="s">
-        <v>52</v>
-      </c>
-      <c r="J20" t="s">
+      <c r="K24" s="2">
+        <v>43361</v>
+      </c>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" t="s">
         <v>107</v>
       </c>
-      <c r="K20" t="s">
+      <c r="E25" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="F25" t="s">
         <v>109</v>
       </c>
-      <c r="E21" t="s">
+      <c r="J25" t="s">
         <v>110</v>
       </c>
-      <c r="F21" t="s">
+      <c r="K25" s="2">
+        <v>44796</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
         <v>111</v>
       </c>
-      <c r="H21" t="s">
-        <v>51</v>
-      </c>
-      <c r="I21" t="s">
-        <v>52</v>
-      </c>
-      <c r="J21" t="s">
+      <c r="E26" t="s">
         <v>112</v>
       </c>
-      <c r="K21" t="s">
+      <c r="F26" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="J26" t="s">
         <v>114</v>
       </c>
-      <c r="E22" t="s">
+      <c r="K26" s="2">
+        <v>41722</v>
+      </c>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" t="s">
         <v>115</v>
       </c>
-      <c r="F22" t="s">
+      <c r="E27" t="s">
         <v>116</v>
       </c>
-      <c r="H22" t="s">
-        <v>51</v>
-      </c>
-      <c r="I22" t="s">
-        <v>52</v>
-      </c>
-      <c r="J22" t="s">
+      <c r="F27" t="s">
         <v>117</v>
       </c>
-      <c r="K22" t="s">
+      <c r="J27" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="K27" s="2">
+        <v>45876</v>
+      </c>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
         <v>119</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E28" t="s">
         <v>120</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F28" t="s">
         <v>121</v>
       </c>
-      <c r="J23" t="s">
+      <c r="H28" t="s">
+        <v>44</v>
+      </c>
+      <c r="I28" t="s">
+        <v>45</v>
+      </c>
+      <c r="J28" t="s">
         <v>122</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K28" s="2">
+        <v>44770</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="E29" t="s">
         <v>124</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F29" t="s">
         <v>125</v>
       </c>
-      <c r="F24" t="s">
+      <c r="J29" t="s">
         <v>126</v>
       </c>
-      <c r="H24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I24" t="s">
-        <v>52</v>
-      </c>
-      <c r="J24" t="s">
+      <c r="K29" s="2">
+        <v>43215</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
         <v>127</v>
       </c>
-      <c r="K24" t="s">
+      <c r="E30" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="F30" t="s">
         <v>129</v>
       </c>
-      <c r="E25" t="s">
+      <c r="H30" t="s">
+        <v>44</v>
+      </c>
+      <c r="I30" t="s">
+        <v>45</v>
+      </c>
+      <c r="J30" t="s">
         <v>130</v>
       </c>
-      <c r="F25" t="s">
+      <c r="K30" s="2">
+        <v>40973</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
         <v>131</v>
       </c>
-      <c r="J25" t="s">
+      <c r="E31" t="s">
         <v>132</v>
       </c>
-      <c r="K25" t="s">
+      <c r="F31" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="J31" t="s">
         <v>134</v>
       </c>
-      <c r="E26" t="s">
+      <c r="K31" s="2">
+        <v>45191</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" t="s">
         <v>135</v>
       </c>
-      <c r="F26" t="s">
+      <c r="E32" t="s">
         <v>136</v>
       </c>
-      <c r="J26" t="s">
+      <c r="F32" t="s">
         <v>137</v>
       </c>
-      <c r="K26" t="s">
+      <c r="H32" t="s">
+        <v>44</v>
+      </c>
+      <c r="I32" t="s">
+        <v>45</v>
+      </c>
+      <c r="J32" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="K32" s="2">
+        <v>44347</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s">
         <v>139</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E33" t="s">
         <v>140</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F33" t="s">
         <v>141</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J33" t="s">
         <v>142</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K33" s="2">
+        <v>42881</v>
+      </c>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="E34" t="s">
         <v>144</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F34" t="s">
         <v>145</v>
       </c>
-      <c r="F28" t="s">
+      <c r="H34" t="s">
+        <v>44</v>
+      </c>
+      <c r="I34" t="s">
+        <v>45</v>
+      </c>
+      <c r="J34" t="s">
         <v>146</v>
       </c>
-      <c r="H28" t="s">
-        <v>51</v>
-      </c>
-      <c r="I28" t="s">
-        <v>52</v>
-      </c>
-      <c r="J28" t="s">
+      <c r="K34" s="2">
+        <v>43220</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" t="s">
         <v>147</v>
       </c>
-      <c r="K28" t="s">
+      <c r="E35" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="F35" t="s">
         <v>149</v>
       </c>
-      <c r="E29" t="s">
+      <c r="J35" t="s">
         <v>150</v>
       </c>
-      <c r="F29" t="s">
+      <c r="K35" s="2">
+        <v>44642</v>
+      </c>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" t="s">
         <v>151</v>
       </c>
-      <c r="J29" t="s">
+      <c r="E36" t="s">
         <v>152</v>
       </c>
-      <c r="K29" t="s">
+      <c r="F36" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="H36" t="s">
+        <v>44</v>
+      </c>
+      <c r="I36" t="s">
+        <v>45</v>
+      </c>
+      <c r="J36" t="s">
         <v>154</v>
       </c>
-      <c r="E30" t="s">
+      <c r="K36" s="2">
+        <v>45691</v>
+      </c>
+      <c r="L36" s="3"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" t="s">
         <v>155</v>
       </c>
-      <c r="F30" t="s">
+      <c r="E37" t="s">
         <v>156</v>
       </c>
-      <c r="H30" t="s">
-        <v>51</v>
-      </c>
-      <c r="I30" t="s">
-        <v>52</v>
-      </c>
-      <c r="J30" t="s">
+      <c r="F37" t="s">
         <v>157</v>
       </c>
-      <c r="K30" t="s">
+      <c r="J37" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="K37" s="2">
+        <v>44427</v>
+      </c>
+      <c r="L37" s="3"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" t="s">
         <v>159</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E38" t="s">
         <v>160</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F38" t="s">
         <v>161</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J38" t="s">
         <v>162</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K38" s="2">
+        <v>44460</v>
+      </c>
+      <c r="L38" s="3"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="E39" t="s">
         <v>164</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F39" t="s">
         <v>165</v>
       </c>
-      <c r="F32" t="s">
+      <c r="J39" t="s">
         <v>166</v>
       </c>
-      <c r="H32" t="s">
-        <v>51</v>
-      </c>
-      <c r="I32" t="s">
-        <v>52</v>
-      </c>
-      <c r="J32" t="s">
+      <c r="K39" s="2">
+        <v>44803</v>
+      </c>
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" t="s">
         <v>167</v>
       </c>
-      <c r="K32" t="s">
+      <c r="E40" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="F40" t="s">
         <v>169</v>
       </c>
-      <c r="E33" t="s">
+      <c r="J40" t="s">
         <v>170</v>
       </c>
-      <c r="F33" t="s">
+      <c r="K40" s="2">
+        <v>45797</v>
+      </c>
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" t="s">
         <v>171</v>
       </c>
-      <c r="J33" t="s">
+      <c r="E41" t="s">
         <v>172</v>
       </c>
-      <c r="K33" t="s">
+      <c r="F41" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="J41" t="s">
         <v>174</v>
       </c>
-      <c r="E34" t="s">
+      <c r="K41" s="2">
+        <v>45642</v>
+      </c>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" t="s">
         <v>175</v>
       </c>
-      <c r="F34" t="s">
+      <c r="E42" t="s">
         <v>176</v>
       </c>
-      <c r="H34" t="s">
-        <v>51</v>
-      </c>
-      <c r="I34" t="s">
-        <v>52</v>
-      </c>
-      <c r="J34" t="s">
+      <c r="F42" t="s">
         <v>177</v>
       </c>
-      <c r="K34" t="s">
+      <c r="J42" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="K42" s="2">
+        <v>45055</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" t="s">
         <v>179</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E43" t="s">
         <v>180</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F43" t="s">
         <v>181</v>
       </c>
-      <c r="J35" t="s">
+      <c r="J43" t="s">
         <v>182</v>
       </c>
-      <c r="K35" t="s">
+      <c r="K43" s="2">
+        <v>44939</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" t="s">
+        <v>179</v>
+      </c>
+      <c r="E44" t="s">
+        <v>180</v>
+      </c>
+      <c r="F44" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>11</v>
-      </c>
-      <c r="B36" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="J44" t="s">
         <v>184</v>
       </c>
-      <c r="E36" t="s">
+      <c r="K44" s="2">
+        <v>44902</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" t="s">
+        <v>179</v>
+      </c>
+      <c r="E45" t="s">
+        <v>180</v>
+      </c>
+      <c r="F45" t="s">
         <v>185</v>
       </c>
-      <c r="F36" t="s">
+      <c r="J45" t="s">
         <v>186</v>
       </c>
-      <c r="H36" t="s">
-        <v>51</v>
-      </c>
-      <c r="I36" t="s">
-        <v>52</v>
-      </c>
-      <c r="J36" t="s">
-        <v>187</v>
-      </c>
-      <c r="K36" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" t="s">
-        <v>189</v>
-      </c>
-      <c r="E37" t="s">
-        <v>190</v>
-      </c>
-      <c r="F37" t="s">
-        <v>191</v>
-      </c>
-      <c r="J37" t="s">
-        <v>192</v>
-      </c>
-      <c r="K37" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" t="s">
-        <v>194</v>
-      </c>
-      <c r="E38" t="s">
-        <v>195</v>
-      </c>
-      <c r="F38" t="s">
-        <v>196</v>
-      </c>
-      <c r="J38" t="s">
-        <v>197</v>
-      </c>
-      <c r="K38" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>11</v>
-      </c>
-      <c r="B39" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" t="s">
-        <v>199</v>
-      </c>
-      <c r="E39" t="s">
-        <v>200</v>
-      </c>
-      <c r="F39" t="s">
-        <v>201</v>
-      </c>
-      <c r="J39" t="s">
-        <v>202</v>
-      </c>
-      <c r="K39" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" t="s">
-        <v>204</v>
-      </c>
-      <c r="E40" t="s">
-        <v>205</v>
-      </c>
-      <c r="F40" t="s">
-        <v>206</v>
-      </c>
-      <c r="J40" t="s">
-        <v>207</v>
-      </c>
-      <c r="K40" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>11</v>
-      </c>
-      <c r="B41" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" t="s">
-        <v>209</v>
-      </c>
-      <c r="E41" t="s">
-        <v>210</v>
-      </c>
-      <c r="F41" t="s">
-        <v>211</v>
-      </c>
-      <c r="J41" t="s">
-        <v>212</v>
-      </c>
-      <c r="K41" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>11</v>
-      </c>
-      <c r="B42" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42" t="s">
-        <v>214</v>
-      </c>
-      <c r="E42" t="s">
-        <v>215</v>
-      </c>
-      <c r="F42" t="s">
-        <v>216</v>
-      </c>
-      <c r="J42" t="s">
-        <v>217</v>
-      </c>
-      <c r="K42" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>11</v>
-      </c>
-      <c r="B43" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" t="s">
-        <v>219</v>
-      </c>
-      <c r="E43" t="s">
-        <v>220</v>
-      </c>
-      <c r="F43" t="s">
-        <v>221</v>
-      </c>
-      <c r="J43" t="s">
-        <v>222</v>
-      </c>
-      <c r="K43" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>11</v>
-      </c>
-      <c r="B44" t="s">
-        <v>11</v>
-      </c>
-      <c r="C44" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" t="s">
-        <v>219</v>
-      </c>
-      <c r="E44" t="s">
-        <v>220</v>
-      </c>
-      <c r="F44" t="s">
-        <v>224</v>
-      </c>
-      <c r="J44" t="s">
-        <v>225</v>
-      </c>
-      <c r="K44" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B45" t="s">
-        <v>11</v>
-      </c>
-      <c r="C45" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" t="s">
-        <v>219</v>
-      </c>
-      <c r="E45" t="s">
-        <v>220</v>
-      </c>
-      <c r="F45" t="s">
-        <v>227</v>
-      </c>
-      <c r="J45" t="s">
-        <v>228</v>
-      </c>
-      <c r="K45" t="s">
-        <v>226</v>
-      </c>
+      <c r="K45" s="2">
+        <v>44902</v>
+      </c>
+      <c r="L45" s="3"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E35:E45">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E559:E1048576 E1:E34">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35:E45">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
